--- a/finance/2024-01-22-ETF-ranking.xlsx
+++ b/finance/2024-01-22-ETF-ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1169811e7fcfb0/Michael/investment-project/morningstar-scraping/ETFs/output/2024-01-21-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_23D9DA9B8051968E6D7750154C5DCE3A8743D1B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E66302-FCB2-4D91-ABFA-99168C02F07F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8615FAB-3D7A-48DB-87BD-1952237B29E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-8595" windowWidth="16200" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1659,10 +1659,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{698DBD9E-D199-466C-8EB8-D360E34D4421}" name="Table2" displayName="Table2" ref="A5:CL74" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <autoFilter ref="A5:CL74" xr:uid="{698DBD9E-D199-466C-8EB8-D360E34D4421}"/>
@@ -2052,13 +2048,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" activeCellId="3" sqref="A6:XFD6 A10:XFD10 A28:XFD28 AA1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
@@ -22005,9 +22001,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>